--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7264B0-A808-E44D-87F9-C3532D686490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43DC5E-D17E-4C4E-8A63-BCF1EFB19DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="960" windowWidth="27200" windowHeight="16540" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
+    <workbookView xWindow="16460" yWindow="700" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>sequenceID</t>
   </si>
@@ -56,21 +56,6 @@
     <t>subgenus</t>
   </si>
   <si>
-    <t>host_sci_name</t>
-  </si>
-  <si>
-    <t>host_common_name</t>
-  </si>
-  <si>
-    <t>K02120</t>
-  </si>
-  <si>
-    <t>BLV</t>
-  </si>
-  <si>
-    <t>Bovine leukemia virus</t>
-  </si>
-  <si>
     <t>Orthoretrovirinae</t>
   </si>
   <si>
@@ -80,31 +65,43 @@
     <t>Deltaretrovirus</t>
   </si>
   <si>
-    <t>Ungulate</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Domestic cow</t>
-  </si>
-  <si>
-    <t>J02029</t>
-  </si>
-  <si>
-    <t>HTLV-1</t>
-  </si>
-  <si>
-    <t>Human T-lymphotropic virus 1</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Human</t>
+    <t>MinERVa-con</t>
+  </si>
+  <si>
+    <t>Murina-con</t>
+  </si>
+  <si>
+    <t>Platanista-con</t>
+  </si>
+  <si>
+    <t>Platanista_minor</t>
+  </si>
+  <si>
+    <t>Murina_aurata_feae</t>
+  </si>
+  <si>
+    <t>Miniopterus</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>host_group_name</t>
+  </si>
+  <si>
+    <t>host_group_taxlevel</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>reftype</t>
+  </si>
+  <si>
+    <t>consensus</t>
   </si>
 </sst>
 </file>
@@ -150,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,24 +483,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3CDF3-D172-594F-9592-D3550A4BED8C}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,83 +508,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Deltaretrovirus-GLUE/tabular/erv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43DC5E-D17E-4C4E-8A63-BCF1EFB19DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C061A-EDB7-6544-B6E2-B91119D4D756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="700" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
+    <workbookView xWindow="10180" yWindow="4080" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>sequenceID</t>
   </si>
@@ -74,21 +75,12 @@
     <t>Platanista-con</t>
   </si>
   <si>
-    <t>Platanista_minor</t>
-  </si>
-  <si>
-    <t>Murina_aurata_feae</t>
-  </si>
-  <si>
     <t>Miniopterus</t>
   </si>
   <si>
     <t>Unclassified</t>
   </si>
   <si>
-    <t>host_group_name</t>
-  </si>
-  <si>
     <t>host_group_taxlevel</t>
   </si>
   <si>
@@ -102,13 +94,61 @@
   </si>
   <si>
     <t>consensus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.1-Miniopterus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.3-Murina_aurata</t>
+  </si>
+  <si>
+    <t>ERV-Delta.6-Platanista_minor</t>
+  </si>
+  <si>
+    <t>ERV-Delta.2-Rhinolophus_sinicus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.4-Hipposideros_galeritus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.5-Anoura_caudifer</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Herpestoidea</t>
+  </si>
+  <si>
+    <t>ERV-Delta.7-Herpestoidea</t>
+  </si>
+  <si>
+    <t>Anoura caudifer</t>
+  </si>
+  <si>
+    <t>host group name</t>
+  </si>
+  <si>
+    <t>Rhinolophus sinicus</t>
+  </si>
+  <si>
+    <t>Murina aurata feae</t>
+  </si>
+  <si>
+    <t>Platanista minor</t>
+  </si>
+  <si>
+    <t>Superfamily</t>
+  </si>
+  <si>
+    <t>ERV-Delta.8-Solenodon_paradoxus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,15 +164,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,8 +206,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3CDF3-D172-594F-9592-D3550A4BED8C}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:J4"/>
+      <selection activeCell="B5" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
@@ -508,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -526,106 +567,266 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C061A-EDB7-6544-B6E2-B91119D4D756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102B902-5925-7846-8542-A573C29D4941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="4080" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
+    <workbookView xWindow="8080" yWindow="1540" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>sequenceID</t>
   </si>
@@ -99,12 +99,6 @@
     <t>ERV-Delta.1-Miniopterus</t>
   </si>
   <si>
-    <t>ERV-Delta.3-Murina_aurata</t>
-  </si>
-  <si>
-    <t>ERV-Delta.6-Platanista_minor</t>
-  </si>
-  <si>
     <t>ERV-Delta.2-Rhinolophus_sinicus</t>
   </si>
   <si>
@@ -142,6 +136,21 @@
   </si>
   <si>
     <t>ERV-Delta.8-Solenodon_paradoxus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.2-RhiSin</t>
+  </si>
+  <si>
+    <t>ERV-Delta.4-HipGal</t>
+  </si>
+  <si>
+    <t>ERV-Delta.6-PlaMin</t>
+  </si>
+  <si>
+    <t>ERV-Delta.8-SolPar</t>
+  </si>
+  <si>
+    <t>ERV-Delta.5-AnoCau</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:J9"/>
+      <selection activeCell="B7" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -607,16 +616,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -631,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -639,16 +648,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -663,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>17</v>
@@ -671,16 +680,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -695,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>17</v>
@@ -703,7 +712,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -727,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>17</v>
@@ -735,7 +744,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -759,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>17</v>
@@ -767,16 +776,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -791,24 +800,24 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -823,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102B902-5925-7846-8542-A573C29D4941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8153017-419E-884B-952C-81A5861F9E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1540" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>sequenceID</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Deltaretrovirus</t>
   </si>
   <si>
-    <t>MinERVa-con</t>
-  </si>
-  <si>
-    <t>Murina-con</t>
-  </si>
-  <si>
-    <t>Platanista-con</t>
-  </si>
-  <si>
     <t>Miniopterus</t>
   </si>
   <si>
@@ -151,6 +142,30 @@
   </si>
   <si>
     <t>ERV-Delta.5-AnoCau</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>provirus</t>
+  </si>
+  <si>
+    <t>solo LTR</t>
+  </si>
+  <si>
+    <t>ERV-Delta.1-Miniopterus (MinERVa)</t>
+  </si>
+  <si>
+    <t>ERV-Delta.3-MurAur</t>
+  </si>
+  <si>
+    <t>ERV-Delta.6-Platanista_minor</t>
+  </si>
+  <si>
+    <t>Hipposideros galeritus</t>
+  </si>
+  <si>
+    <t>ERV-Delta.3-Murina_aurata</t>
   </si>
 </sst>
 </file>
@@ -531,26 +546,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3CDF3-D172-594F-9592-D3550A4BED8C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:J9"/>
+      <selection activeCell="B8" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,287 +573,317 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8153017-419E-884B-952C-81A5861F9E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4D17AB-506C-0D47-A437-C7D676D3A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8080" yWindow="1540" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>sequenceID</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>ERV-Delta.3-Murina_aurata</t>
+  </si>
+  <si>
+    <t>ERV-Delta.9-MolMol</t>
+  </si>
+  <si>
+    <t>ERV-Delta.9-Molossus_molossus</t>
+  </si>
+  <si>
+    <t>Molossus molossus</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D3CDF3-D172-594F-9592-D3550A4BED8C}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:K9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +619,7 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -645,7 +654,7 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -680,7 +689,7 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -715,7 +724,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -750,7 +759,7 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -785,7 +794,7 @@
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -820,7 +829,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -855,7 +864,7 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -877,6 +886,41 @@
         <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4D17AB-506C-0D47-A437-C7D676D3A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62F892-6172-694D-921F-6A2510A431D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="1540" windowWidth="40620" windowHeight="24600" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
+    <workbookView xWindow="6140" yWindow="3060" windowWidth="39320" windowHeight="17280" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>sequenceID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Miniopterus</t>
   </si>
   <si>
-    <t>Unclassified</t>
-  </si>
-  <si>
     <t>host_group_taxlevel</t>
   </si>
   <si>
@@ -175,6 +172,21 @@
   </si>
   <si>
     <t>Molossus molossus</t>
+  </si>
+  <si>
+    <t>Chiroptera</t>
+  </si>
+  <si>
+    <t>Cetartiodactyla</t>
+  </si>
+  <si>
+    <t>Carnivora</t>
+  </si>
+  <si>
+    <t>Solenodon paradoxus</t>
+  </si>
+  <si>
+    <t>Insectivora</t>
   </si>
 </sst>
 </file>
@@ -558,7 +570,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -603,27 +615,27 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -635,30 +647,30 @@
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -670,30 +682,30 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -705,30 +717,30 @@
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -740,30 +752,30 @@
         <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -775,30 +787,30 @@
         <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
@@ -810,30 +822,30 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
@@ -845,30 +857,30 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -880,30 +892,30 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -915,18 +927,19 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+    <sortCondition ref="I2:I10"/>
+    <sortCondition ref="B2:B10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62F892-6172-694D-921F-6A2510A431D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E2B99-EC02-CC4A-B0A7-B21F27CC3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="3060" windowWidth="39320" windowHeight="17280" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Deltaretrovirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E2B99-EC02-CC4A-B0A7-B21F27CC3C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1BFCBD-3372-3844-B9C5-BFF3F81DFF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="3060" windowWidth="39320" windowHeight="17280" xr2:uid="{BB705A9D-FBC1-AA49-AAF1-8BAD7726CAC1}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
